--- a/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44999</v>
       </c>
       <c r="B2" t="n">
-        <v>424.6685012551927</v>
+        <v>409.9152059481632</v>
       </c>
       <c r="C2" t="n">
-        <v>291.749548771682</v>
+        <v>286.5843499641058</v>
       </c>
       <c r="D2" t="n">
-        <v>547.6036466068283</v>
+        <v>559.9368477142215</v>
       </c>
       <c r="E2" t="n">
         <v>449</v>
@@ -496,13 +496,13 @@
         <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>382.8663591250416</v>
+        <v>366.6658166038485</v>
       </c>
       <c r="C3" t="n">
-        <v>262.4562475137246</v>
+        <v>237.2710646640333</v>
       </c>
       <c r="D3" t="n">
-        <v>494.6979397727492</v>
+        <v>497.7162899302155</v>
       </c>
       <c r="E3" t="n">
         <v>357</v>
@@ -516,13 +516,13 @@
         <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>376.6720617222833</v>
+        <v>362.1761115240006</v>
       </c>
       <c r="C4" t="n">
-        <v>246.7769738172271</v>
+        <v>236.8015230253133</v>
       </c>
       <c r="D4" t="n">
-        <v>497.9026576093522</v>
+        <v>496.7104954993411</v>
       </c>
       <c r="E4" t="n">
         <v>452</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>391.8004019799556</v>
+        <v>377.493386172908</v>
       </c>
       <c r="C5" t="n">
-        <v>280.8370646853391</v>
+        <v>247.5965216920196</v>
       </c>
       <c r="D5" t="n">
-        <v>514.110999755029</v>
+        <v>513.6822521475477</v>
       </c>
       <c r="E5" t="n">
         <v>519</v>
@@ -617,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>592.0218311685582</v>
+        <v>1527.621126074494</v>
       </c>
       <c r="C2" t="n">
-        <v>24.33149874480728</v>
+        <v>39.08479405183675</v>
       </c>
       <c r="D2" t="n">
-        <v>24.33149874480728</v>
+        <v>39.08479405183675</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05419042036705407</v>
+        <v>0.08704853909095045</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05419042036705407</v>
+        <v>0.08704853909095045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05569961309089295</v>
+        <v>0.09100966843098497</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>7507.701518672673</v>
+        <v>9395.293569459252</v>
       </c>
       <c r="C3" t="n">
-        <v>86.64699370822206</v>
+        <v>96.92932254720061</v>
       </c>
       <c r="D3" t="n">
-        <v>76.1312984742676</v>
+        <v>80.33210630231329</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1613984829474918</v>
+        <v>0.1661509895464427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1666547307029131</v>
+        <v>0.1987254169822996</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1770131884826591</v>
+        <v>0.1876841331195799</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666667</v>

--- a/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>44999</v>
       </c>
       <c r="B2" t="n">
-        <v>409.9152059481632</v>
+        <v>420.8349887210911</v>
       </c>
       <c r="C2" t="n">
-        <v>286.5843499641058</v>
+        <v>300.4300239426691</v>
       </c>
       <c r="D2" t="n">
-        <v>559.9368477142215</v>
+        <v>537.8771828778669</v>
       </c>
       <c r="E2" t="n">
         <v>449</v>
@@ -496,13 +496,13 @@
         <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>366.6658166038485</v>
+        <v>380.5200279315715</v>
       </c>
       <c r="C3" t="n">
-        <v>237.2710646640333</v>
+        <v>251.7791723874828</v>
       </c>
       <c r="D3" t="n">
-        <v>497.7162899302155</v>
+        <v>503.0526662066775</v>
       </c>
       <c r="E3" t="n">
         <v>357</v>
@@ -513,19 +513,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45026</v>
+        <v>45024</v>
       </c>
       <c r="B4" t="n">
-        <v>362.1761115240006</v>
+        <v>332.4255449454853</v>
       </c>
       <c r="C4" t="n">
-        <v>236.8015230253133</v>
+        <v>217.6748235647906</v>
       </c>
       <c r="D4" t="n">
-        <v>496.7104954993411</v>
+        <v>459.9007087330116</v>
       </c>
       <c r="E4" t="n">
-        <v>452</v>
+        <v>641</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45019</v>
@@ -533,21 +533,41 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="B5" t="n">
+        <v>374.4930442967772</v>
+      </c>
+      <c r="C5" t="n">
+        <v>248.9540939190013</v>
+      </c>
+      <c r="D5" t="n">
+        <v>503.5267036853291</v>
+      </c>
+      <c r="E5" t="n">
+        <v>452</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45040</v>
       </c>
-      <c r="B5" t="n">
-        <v>377.493386172908</v>
-      </c>
-      <c r="C5" t="n">
-        <v>247.5965216920196</v>
-      </c>
-      <c r="D5" t="n">
-        <v>513.6822521475477</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>413.8706820850423</v>
+      </c>
+      <c r="C6" t="n">
+        <v>282.51634207331</v>
+      </c>
+      <c r="D6" t="n">
+        <v>552.052499123322</v>
+      </c>
+      <c r="E6" t="n">
         <v>519</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -562,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1527.621126074494</v>
+        <v>793.2678603410643</v>
       </c>
       <c r="C2" t="n">
-        <v>39.08479405183675</v>
+        <v>28.16501127890888</v>
       </c>
       <c r="D2" t="n">
-        <v>39.08479405183675</v>
+        <v>28.16501127890888</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08704853909095045</v>
+        <v>0.06272831019801532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08704853909095045</v>
+        <v>0.06272831019801532</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09100966843098497</v>
+        <v>0.06475943516670808</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -640,28 +660,54 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95218.19431219072</v>
+      </c>
+      <c r="C3" t="n">
+        <v>308.5744550545147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>308.5744550545147</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.481395405701271</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.481395405701271</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6339970358427276</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>9395.293569459252</v>
-      </c>
-      <c r="C3" t="n">
-        <v>96.92932254720061</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.33210630231329</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1661509895464427</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1987254169822996</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.1876841331195799</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6666666666666667</v>
+      <c r="B4" t="n">
+        <v>5870.897793849164</v>
+      </c>
+      <c r="C4" t="n">
+        <v>76.62178406856084</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.71876718325066</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1466397676968302</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1714755657150946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1589088164229717</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
+++ b/modelos/OBALEI4421040/OBALEI4421040_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44999</v>
+        <v>45012</v>
       </c>
       <c r="B2" t="n">
-        <v>420.8349887210911</v>
+        <v>366.6658166017139</v>
       </c>
       <c r="C2" t="n">
-        <v>300.4300239426691</v>
+        <v>223.8826946798749</v>
       </c>
       <c r="D2" t="n">
-        <v>537.8771828778669</v>
+        <v>499.2747402689512</v>
       </c>
       <c r="E2" t="n">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44998</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45012</v>
+        <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>380.5200279315715</v>
+        <v>318.8123283926226</v>
       </c>
       <c r="C3" t="n">
-        <v>251.7791723874828</v>
+        <v>193.3097639343246</v>
       </c>
       <c r="D3" t="n">
-        <v>503.0526662066775</v>
+        <v>447.4856064522904</v>
       </c>
       <c r="E3" t="n">
-        <v>357</v>
+        <v>641</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45005</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45024</v>
+        <v>45026</v>
       </c>
       <c r="B4" t="n">
-        <v>332.4255449454853</v>
+        <v>362.1761115240113</v>
       </c>
       <c r="C4" t="n">
-        <v>217.6748235647906</v>
+        <v>237.1227266134084</v>
       </c>
       <c r="D4" t="n">
-        <v>459.9007087330116</v>
+        <v>495.8416627157593</v>
       </c>
       <c r="E4" t="n">
-        <v>641</v>
+        <v>452</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45019</v>
@@ -533,41 +533,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>374.4930442967772</v>
+        <v>404.1179271204501</v>
       </c>
       <c r="C5" t="n">
-        <v>248.9540939190013</v>
+        <v>245.4950004930377</v>
       </c>
       <c r="D5" t="n">
-        <v>503.5267036853291</v>
+        <v>531.1660706999427</v>
       </c>
       <c r="E5" t="n">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45019</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B6" t="n">
-        <v>413.8706820850423</v>
-      </c>
-      <c r="C6" t="n">
-        <v>282.51634207331</v>
-      </c>
-      <c r="D6" t="n">
-        <v>552.052499123322</v>
-      </c>
-      <c r="E6" t="n">
-        <v>519</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45033</v>
       </c>
     </row>
@@ -582,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,79 +614,53 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>793.2678603410643</v>
+        <v>103804.8957357833</v>
       </c>
       <c r="C2" t="n">
-        <v>28.16501127890888</v>
+        <v>322.1876716073774</v>
       </c>
       <c r="D2" t="n">
-        <v>28.16501127890888</v>
+        <v>322.1876716073774</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06272831019801532</v>
+        <v>0.5026328730224296</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06272831019801532</v>
+        <v>0.5026328730224296</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06475943516670808</v>
+        <v>0.6713555599914793</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>95218.19431219072</v>
+        <v>7119.883206875678</v>
       </c>
       <c r="C3" t="n">
-        <v>308.5744550545147</v>
+        <v>84.37940037044396</v>
       </c>
       <c r="D3" t="n">
-        <v>308.5744550545147</v>
+        <v>71.45725931908416</v>
       </c>
       <c r="E3" t="n">
-        <v>0.481395405701271</v>
+        <v>0.1490510916975938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.481395405701271</v>
+        <v>0.1987254169822759</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6339970358427276</v>
+        <v>0.1654211197060108</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5870.897793849164</v>
-      </c>
-      <c r="C4" t="n">
-        <v>76.62178406856084</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68.71876718325066</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1466397676968302</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1714755657150946</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1589088164229717</v>
-      </c>
-      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
